--- a/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
+++ b/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8407CD82-DB38-45BA-A361-0F0DFEEA0797}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C633AC01-4376-41F0-AE10-3D0A74F60D87}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" activeTab="2" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
     <sheet name="BM1's Performance" sheetId="2" r:id="rId1"/>
-    <sheet name="Corrections" sheetId="3" r:id="rId2"/>
-    <sheet name="Lars" sheetId="5" r:id="rId3"/>
+    <sheet name="enet" sheetId="3" r:id="rId2"/>
+    <sheet name="lars" sheetId="5" r:id="rId3"/>
     <sheet name="glmnet" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="77">
   <si>
     <t>Dataset Range</t>
   </si>
@@ -278,9 +278,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -862,7 +862,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -905,7 +905,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -914,17 +914,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -941,6 +940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2554,7 +2555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,34 +2573,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2607,31 +2608,31 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21">
-        <v>10000</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="18">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
         <v>1425</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="18">
         <v>8575</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
         <v>1425</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2640,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>10000</v>
       </c>
       <c r="C3">
@@ -2663,7 +2664,7 @@
       <c r="I3">
         <v>5312</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +2672,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>10000</v>
       </c>
       <c r="C4">
@@ -2695,7 +2696,7 @@
       <c r="I4">
         <v>8122</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +2704,7 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>5000</v>
       </c>
       <c r="C5">
@@ -2727,7 +2728,7 @@
       <c r="I5">
         <v>4611</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +2736,7 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>10000</v>
       </c>
       <c r="C6">
@@ -2759,7 +2760,7 @@
       <c r="I6">
         <v>9714</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2767,7 +2768,7 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>10000</v>
       </c>
       <c r="C7">
@@ -2791,7 +2792,7 @@
       <c r="I7">
         <v>9935</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2799,7 +2800,7 @@
       <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>10000</v>
       </c>
       <c r="C8">
@@ -2823,39 +2824,39 @@
       <c r="I8">
         <v>9989</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>15000</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>0.85499999999999998</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
         <v>6971</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>8029</v>
       </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
         <v>6971</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +2864,7 @@
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>15000</v>
       </c>
       <c r="C10">
@@ -2887,7 +2888,7 @@
       <c r="I10">
         <v>13787</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2895,7 +2896,7 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>5000</v>
       </c>
       <c r="C11">
@@ -2919,7 +2920,7 @@
       <c r="I11">
         <v>4956</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +2928,7 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>5000</v>
       </c>
       <c r="C12">
@@ -2951,7 +2952,7 @@
       <c r="I12">
         <v>4980</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2959,7 +2960,7 @@
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>10000</v>
       </c>
       <c r="C13">
@@ -2983,7 +2984,7 @@
       <c r="I13">
         <v>9996</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2991,7 +2992,7 @@
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>15000</v>
       </c>
       <c r="C14">
@@ -3015,39 +3016,39 @@
       <c r="I14">
         <v>15000</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18">
-        <v>10000</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C15" s="18">
         <v>0.749</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>0.998</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>2E-3</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>5467</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>3951</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>168</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>5881</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <v>582</v>
       </c>
     </row>
@@ -3055,7 +3056,7 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>10000</v>
       </c>
       <c r="C16">
@@ -3079,7 +3080,7 @@
       <c r="I16">
         <v>9326</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>837</v>
       </c>
     </row>
@@ -3087,7 +3088,7 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>5000</v>
       </c>
       <c r="C17">
@@ -3111,7 +3112,7 @@
       <c r="I17">
         <v>4973</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>510</v>
       </c>
     </row>
@@ -3119,7 +3120,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>5000</v>
       </c>
       <c r="C18">
@@ -3143,7 +3144,7 @@
       <c r="I18">
         <v>4989</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <v>521</v>
       </c>
     </row>
@@ -3151,7 +3152,7 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>5000</v>
       </c>
       <c r="C19">
@@ -3175,7 +3176,7 @@
       <c r="I19">
         <v>4998</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>579</v>
       </c>
     </row>
@@ -3183,7 +3184,7 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>10000</v>
       </c>
       <c r="C20">
@@ -3207,7 +3208,7 @@
       <c r="I20">
         <v>10000</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>1159</v>
       </c>
     </row>
@@ -3215,7 +3216,7 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>10000</v>
       </c>
       <c r="C21">
@@ -3239,7 +3240,7 @@
       <c r="I21">
         <v>10000</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>1215</v>
       </c>
     </row>
@@ -3247,7 +3248,7 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>10000</v>
       </c>
       <c r="C22">
@@ -3271,39 +3272,39 @@
       <c r="I22">
         <v>10000</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="18">
-        <v>10000</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="B23" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="18">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>0.98099999999999998</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>1.9E-2</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>4077</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>727</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>549</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>8724</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <v>5196</v>
       </c>
     </row>
@@ -3311,7 +3312,7 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>10000</v>
       </c>
       <c r="C24">
@@ -3335,7 +3336,7 @@
       <c r="I24">
         <v>9939</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>6027</v>
       </c>
     </row>
@@ -3343,7 +3344,7 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>5000</v>
       </c>
       <c r="C25">
@@ -3367,7 +3368,7 @@
       <c r="I25">
         <v>4999</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>3055</v>
       </c>
     </row>
@@ -3375,7 +3376,7 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>5000</v>
       </c>
       <c r="C26">
@@ -3399,7 +3400,7 @@
       <c r="I26">
         <v>5000</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>3093</v>
       </c>
     </row>
@@ -3407,7 +3408,7 @@
       <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>5000</v>
       </c>
       <c r="C27">
@@ -3431,7 +3432,7 @@
       <c r="I27">
         <v>5000</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>3088</v>
       </c>
     </row>
@@ -3439,7 +3440,7 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>5000</v>
       </c>
       <c r="C28">
@@ -3463,7 +3464,7 @@
       <c r="I28">
         <v>5000</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>2982</v>
       </c>
     </row>
@@ -3471,7 +3472,7 @@
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>5000</v>
       </c>
       <c r="C29">
@@ -3495,7 +3496,7 @@
       <c r="I29">
         <v>5000</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>2932</v>
       </c>
     </row>
@@ -3503,7 +3504,7 @@
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>5000</v>
       </c>
       <c r="C30">
@@ -3527,7 +3528,7 @@
       <c r="I30">
         <v>5000</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>2803</v>
       </c>
     </row>
@@ -3535,7 +3536,7 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>10000</v>
       </c>
       <c r="C31">
@@ -3559,7 +3560,7 @@
       <c r="I31">
         <v>10000</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>5256</v>
       </c>
     </row>
@@ -3567,7 +3568,7 @@
       <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>5000</v>
       </c>
       <c r="C32">
@@ -3591,7 +3592,7 @@
       <c r="I32">
         <v>5000</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>2542</v>
       </c>
     </row>
@@ -3640,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232B5EE-21FD-4318-98F5-1F0F02FE7624}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F13" sqref="F13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,42 +3663,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B2">
@@ -3728,12 +3729,12 @@
       <c r="J2">
         <v>728</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -3764,12 +3765,12 @@
       <c r="J3">
         <v>4156</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -3800,12 +3801,12 @@
       <c r="J4">
         <v>7493</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B5">
@@ -3835,12 +3836,12 @@
       <c r="J5">
         <v>4454</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B6">
@@ -3870,12 +3871,12 @@
       <c r="J6">
         <v>9620</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B7">
@@ -3905,12 +3906,12 @@
       <c r="J7">
         <v>9915</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B8">
@@ -3940,12 +3941,12 @@
       <c r="J8">
         <v>4986</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -3975,7 +3976,7 @@
       <c r="J9">
         <v>4993</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3983,681 +3984,671 @@
       <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="18">
         <v>0.92</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
         <v>2610</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>7390</v>
       </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="18">
         <v>2610</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>757</v>
+      </c>
+      <c r="G11">
+        <v>4243</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1853</v>
+      </c>
+      <c r="G12">
+        <v>3147</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3147</v>
+      </c>
+      <c r="J12">
+        <v>3147</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="F13">
+        <f>F11+F12</f>
+        <v>2610</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:K13" si="1">G11+G12</f>
+        <v>7390</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8147</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>8147</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>5000</v>
-      </c>
-      <c r="C11">
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
         <v>0.83499999999999996</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>3027</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>1973</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>5000</v>
-      </c>
-      <c r="J11">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5000</v>
+      </c>
+      <c r="J14">
         <v>3027</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12">
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
         <v>0.75700000000000001</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>8549</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>1451</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>10000</v>
-      </c>
-      <c r="J12">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10000</v>
+      </c>
+      <c r="J15">
         <v>8549</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B13">
-        <v>5000</v>
-      </c>
-      <c r="C13">
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>4812</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>188</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>5000</v>
-      </c>
-      <c r="J13">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5000</v>
+      </c>
+      <c r="J16">
         <v>4812</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C14">
+      <c r="B17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C17">
         <v>0.66400000000000003</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>4930</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>70</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>5000</v>
-      </c>
-      <c r="J14">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5000</v>
+      </c>
+      <c r="J17">
         <v>4930</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C15">
+      <c r="B18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C18">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>4967</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>33</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>5000</v>
-      </c>
-      <c r="J15">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5000</v>
+      </c>
+      <c r="J18">
         <v>4967</v>
       </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C16">
+      <c r="B19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C19">
         <v>0.61</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>9994</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>6</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>10000</v>
-      </c>
-      <c r="J16">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>10000</v>
+      </c>
+      <c r="J19">
         <v>9994</v>
       </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B17">
-        <v>5000</v>
-      </c>
-      <c r="C17">
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>4998</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>4998</v>
       </c>
-      <c r="J17">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="22">
+      <c r="J20">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
-        <v>5000</v>
-      </c>
-      <c r="C18">
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>4998</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>4999</v>
       </c>
-      <c r="J18">
+      <c r="J21">
         <v>4999</v>
       </c>
-      <c r="K18" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="K21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
-        <v>5000</v>
-      </c>
-      <c r="C19">
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>4998</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>4998</v>
       </c>
-      <c r="J19">
-        <v>5000</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="B23" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="18">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
         <v>5330</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G23" s="18">
         <v>4647</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H23" s="18">
         <v>13</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I23" s="18">
         <v>9990</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J23" s="18">
         <v>5340</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K23" s="19">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
         <v>0.63400000000000001</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>9075</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>879</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>9959</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>9116</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K24" s="21">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>4923</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>48</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>4972</v>
       </c>
-      <c r="J22">
+      <c r="J25">
         <v>4951</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K25" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
-        <v>5000</v>
-      </c>
-      <c r="C23">
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>4932</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>21</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>SUM(F23,G23,H23)</f>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>SUM(F26,G26,H26)</f>
         <v>4953</v>
       </c>
-      <c r="J23">
+      <c r="J26">
         <v>4979</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K26" s="21">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
-        <v>5000</v>
-      </c>
-      <c r="C24">
+      <c r="B27">
+        <v>5000</v>
+      </c>
+      <c r="C27">
         <v>0.502</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>4937</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I27" si="1">SUM(F24,G24,H24)</f>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I30" si="2">SUM(F27,G27,H27)</f>
         <v>4941</v>
       </c>
-      <c r="J24">
+      <c r="J27">
         <v>4996</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K27" s="21">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-      <c r="C25">
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>0.999</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>1E-3</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>9870</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
         <v>9872</v>
       </c>
-      <c r="J25">
+      <c r="J28">
         <v>9998</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K28" s="21">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-      <c r="C26">
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
         <v>0.41199999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.995</v>
-      </c>
-      <c r="E26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F26">
-        <v>8785</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>8785</v>
-      </c>
-      <c r="J26">
-        <v>10000</v>
-      </c>
-      <c r="K26" s="22">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>10000</v>
-      </c>
-      <c r="C27">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D27">
-        <v>0.999</v>
-      </c>
-      <c r="E27">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>9798</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>9798</v>
-      </c>
-      <c r="J27">
-        <v>10000</v>
-      </c>
-      <c r="K27" s="22">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="19">
-        <v>10000</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0.625</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.996</v>
-      </c>
-      <c r="E28" s="19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F28" s="19">
-        <v>7450</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1581</v>
-      </c>
-      <c r="H28" s="19">
-        <v>230</v>
-      </c>
-      <c r="I28" s="19">
-        <v>9261</v>
-      </c>
-      <c r="J28" s="19">
-        <v>8189</v>
-      </c>
-      <c r="K28" s="20">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-      <c r="C29">
-        <v>0.48299999999999998</v>
       </c>
       <c r="D29">
         <v>0.995</v>
@@ -4666,343 +4657,450 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29">
+        <v>8785</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>8785</v>
+      </c>
+      <c r="J29">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.999</v>
+      </c>
+      <c r="E30">
+        <v>1E-3</v>
+      </c>
+      <c r="F30">
+        <v>9798</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>9798</v>
+      </c>
+      <c r="J30">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.996</v>
+      </c>
+      <c r="E31" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="18">
+        <v>7450</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1581</v>
+      </c>
+      <c r="H31" s="18">
+        <v>230</v>
+      </c>
+      <c r="I31" s="18">
+        <v>9261</v>
+      </c>
+      <c r="J31" s="18">
+        <v>8189</v>
+      </c>
+      <c r="K31" s="19">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.995</v>
+      </c>
+      <c r="E32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F32">
         <v>8619</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>107</v>
       </c>
-      <c r="H29">
+      <c r="H32">
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="I32">
         <v>8743</v>
       </c>
-      <c r="J29">
+      <c r="J32">
         <v>9876</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K32" s="21">
         <v>1274</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B30">
-        <v>5000</v>
-      </c>
-      <c r="C30">
+      <c r="B33">
+        <v>5000</v>
+      </c>
+      <c r="C33">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>4115</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>4120</v>
       </c>
-      <c r="J30">
+      <c r="J33">
         <v>4995</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K33" s="21">
         <v>880</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B31">
-        <v>5000</v>
-      </c>
-      <c r="C31">
+      <c r="B34">
+        <v>5000</v>
+      </c>
+      <c r="C34">
         <v>0.378</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>0.99199999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>3970</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>3970</v>
       </c>
-      <c r="J31">
-        <v>5000</v>
-      </c>
-      <c r="K31" s="22">
+      <c r="J34">
+        <v>5000</v>
+      </c>
+      <c r="K34" s="21">
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B32">
-        <v>5000</v>
-      </c>
-      <c r="C32">
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>3884</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>3884</v>
       </c>
-      <c r="J32">
-        <v>5000</v>
-      </c>
-      <c r="K32" s="22">
+      <c r="J35">
+        <v>5000</v>
+      </c>
+      <c r="K35" s="21">
         <v>1116</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B33">
-        <v>5000</v>
-      </c>
-      <c r="C33">
+      <c r="B36">
+        <v>5000</v>
+      </c>
+      <c r="C36">
         <v>0.32700000000000001</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>0.99</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>0.01</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>3804</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>3804</v>
       </c>
-      <c r="J33">
-        <v>5000</v>
-      </c>
-      <c r="K33" s="22">
+      <c r="J36">
+        <v>5000</v>
+      </c>
+      <c r="K36" s="21">
         <v>1196</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B34">
-        <v>5000</v>
-      </c>
-      <c r="C34">
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>0.99</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>0.01</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>3737</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>3737</v>
       </c>
-      <c r="J34">
-        <v>5000</v>
-      </c>
-      <c r="K34" s="22">
+      <c r="J37">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="21">
         <v>1263</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B35">
-        <v>5000</v>
-      </c>
-      <c r="C35">
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>1.2E-2</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>3616</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>3616</v>
       </c>
-      <c r="J35">
-        <v>5000</v>
-      </c>
-      <c r="K35" s="22">
+      <c r="J38">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="21">
         <v>1384</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B36">
-        <v>10000</v>
-      </c>
-      <c r="C36">
+      <c r="B39">
+        <v>10000</v>
+      </c>
+      <c r="C39">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>0.98899999999999999</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F36">
+      <c r="F39">
         <v>7323</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>7323</v>
       </c>
-      <c r="J36">
-        <v>10000</v>
-      </c>
-      <c r="K36" s="22">
+      <c r="J39">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="21">
         <v>2677</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B37">
-        <v>5000</v>
-      </c>
-      <c r="C37">
+      <c r="B40">
+        <v>5000</v>
+      </c>
+      <c r="C40">
         <v>0.249</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>1.2E-2</v>
       </c>
-      <c r="F37">
+      <c r="F40">
         <v>3630</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>3630</v>
       </c>
-      <c r="J37">
-        <v>5000</v>
-      </c>
-      <c r="K37" s="24">
+      <c r="J40">
+        <v>5000</v>
+      </c>
+      <c r="K40" s="23">
         <v>1370</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
-        <f>SUM(B2:B37)</f>
-        <v>260000</v>
-      </c>
-      <c r="C38" s="11">
-        <f>AVERAGE(C2:C37)</f>
-        <v>0.5925555555555555</v>
-      </c>
-      <c r="D38" s="11">
-        <f>AVERAGE(D2:D37)</f>
-        <v>0.99736111111111092</v>
-      </c>
-      <c r="E38" s="11">
-        <f>AVERAGE(E2:E37)</f>
-        <v>2.638888888888889E-3</v>
-      </c>
-      <c r="F38" s="12">
-        <f t="shared" ref="F38:K38" si="2">SUM(F2:F37)</f>
-        <v>208026</v>
-      </c>
-      <c r="G38" s="12">
-        <f t="shared" si="2"/>
-        <v>37061</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="2"/>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
+        <f>SUM(B2:B40)</f>
+        <v>270000</v>
+      </c>
+      <c r="C41" s="11">
+        <f>AVERAGE(C2:C40)</f>
+        <v>0.60978947368421033</v>
+      </c>
+      <c r="D41" s="11">
+        <f>AVERAGE(D2:D40)</f>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E41" s="11">
+        <f>AVERAGE(E2:E40)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" ref="F41:K41" si="3">SUM(F2:F40)</f>
+        <v>213246</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="3"/>
+        <v>51841</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="3"/>
         <v>266</v>
       </c>
-      <c r="I38" s="12">
-        <f t="shared" si="2"/>
-        <v>245353</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" si="2"/>
-        <v>222673</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="2"/>
+      <c r="I41" s="12">
+        <f t="shared" si="3"/>
+        <v>261647</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="3"/>
+        <v>238967</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="3"/>
         <v>14913</v>
       </c>
     </row>
@@ -5016,7 +5114,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,37 +5133,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5073,7 +5171,7 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>10000</v>
       </c>
       <c r="C2">
@@ -5100,7 +5198,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>6036</v>
       </c>
     </row>
@@ -5108,7 +5206,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>10000</v>
       </c>
       <c r="C3">
@@ -5135,7 +5233,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>5909</v>
       </c>
     </row>
@@ -5143,7 +5241,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>10000</v>
       </c>
       <c r="C4">
@@ -5171,7 +5269,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>5786</v>
       </c>
     </row>
@@ -5179,7 +5277,7 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>5000</v>
       </c>
       <c r="C5">
@@ -5207,7 +5305,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>2784</v>
       </c>
     </row>
@@ -5215,7 +5313,7 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>5000</v>
       </c>
       <c r="C6">
@@ -5243,7 +5341,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>2687</v>
       </c>
     </row>
@@ -5251,7 +5349,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>5000</v>
       </c>
       <c r="C7">
@@ -5278,7 +5376,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>2755</v>
       </c>
     </row>
@@ -5286,7 +5384,7 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>5000</v>
       </c>
       <c r="C8">
@@ -5313,7 +5411,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>2676</v>
       </c>
     </row>
@@ -5321,7 +5419,7 @@
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>5000</v>
       </c>
       <c r="C9">
@@ -5348,7 +5446,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>2560</v>
       </c>
     </row>
@@ -5356,7 +5454,7 @@
       <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>5000</v>
       </c>
       <c r="C10">
@@ -5383,7 +5481,7 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>2422</v>
       </c>
     </row>
@@ -5391,7 +5489,7 @@
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>5000</v>
       </c>
       <c r="C11" s="15">
@@ -5418,7 +5516,7 @@
       <c r="J11" s="15">
         <v>0</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>2414</v>
       </c>
     </row>
@@ -5426,7 +5524,7 @@
       <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>5000</v>
       </c>
       <c r="C12">
@@ -5453,7 +5551,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>4618</v>
       </c>
     </row>
@@ -5461,7 +5559,7 @@
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>5000</v>
       </c>
       <c r="C13">
@@ -5488,7 +5586,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>4455</v>
       </c>
     </row>
@@ -5496,7 +5594,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>5000</v>
       </c>
       <c r="C14">
@@ -5524,7 +5622,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>4387</v>
       </c>
     </row>
@@ -5532,7 +5630,7 @@
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>10000</v>
       </c>
       <c r="C15">
@@ -5560,7 +5658,7 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>8424</v>
       </c>
     </row>
@@ -5568,7 +5666,7 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>5000</v>
       </c>
       <c r="C16">
@@ -5596,7 +5694,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>4040</v>
       </c>
     </row>
@@ -5604,7 +5702,7 @@
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>5000</v>
       </c>
       <c r="C17">
@@ -5631,7 +5729,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>3947</v>
       </c>
       <c r="L17"/>
@@ -5640,7 +5738,7 @@
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>5000</v>
       </c>
       <c r="C18">
@@ -5667,7 +5765,7 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="21">
         <v>3884</v>
       </c>
     </row>
@@ -5675,7 +5773,7 @@
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>5000</v>
       </c>
       <c r="C19">
@@ -5702,7 +5800,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>3751</v>
       </c>
     </row>
@@ -5710,7 +5808,7 @@
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>5000</v>
       </c>
       <c r="C20">
@@ -5737,7 +5835,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>3698</v>
       </c>
     </row>
@@ -5745,7 +5843,7 @@
       <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>5000</v>
       </c>
       <c r="C21">
@@ -5772,7 +5870,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>3599</v>
       </c>
     </row>
@@ -5780,7 +5878,7 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>5000</v>
       </c>
       <c r="C22">
@@ -5807,7 +5905,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>3526</v>
       </c>
     </row>
@@ -5815,7 +5913,7 @@
       <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>5000</v>
       </c>
       <c r="C23" s="15">
@@ -5842,7 +5940,7 @@
       <c r="J23" s="15">
         <v>0</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>3437</v>
       </c>
     </row>
@@ -5850,7 +5948,7 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>10000</v>
       </c>
       <c r="C24">
@@ -5877,7 +5975,7 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>8988</v>
       </c>
     </row>
@@ -5885,7 +5983,7 @@
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>5000</v>
       </c>
       <c r="C25">
@@ -5912,7 +6010,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>4336</v>
       </c>
     </row>
@@ -5920,7 +6018,7 @@
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>5000</v>
       </c>
       <c r="C26">
@@ -5947,7 +6045,7 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>4263</v>
       </c>
     </row>
@@ -5955,7 +6053,7 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>5000</v>
       </c>
       <c r="C27">
@@ -5982,7 +6080,7 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>4172</v>
       </c>
     </row>
@@ -5990,7 +6088,7 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>5000</v>
       </c>
       <c r="C28">
@@ -6017,7 +6115,7 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>4180</v>
       </c>
     </row>
@@ -6025,7 +6123,7 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>5000</v>
       </c>
       <c r="C29">
@@ -6052,7 +6150,7 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>4139</v>
       </c>
     </row>
@@ -6060,7 +6158,7 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>10000</v>
       </c>
       <c r="C30">
@@ -6087,7 +6185,7 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>8247</v>
       </c>
     </row>
@@ -6095,7 +6193,7 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>10000</v>
       </c>
       <c r="C31">
@@ -6122,7 +6220,7 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="21">
         <v>8321</v>
       </c>
     </row>
@@ -6130,7 +6228,7 @@
       <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>10000</v>
       </c>
       <c r="C32" s="15">
@@ -6157,7 +6255,7 @@
       <c r="J32" s="15">
         <v>0</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>8200</v>
       </c>
     </row>
@@ -6165,7 +6263,7 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>10000</v>
       </c>
       <c r="C33">
@@ -6192,7 +6290,7 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>9145</v>
       </c>
     </row>
@@ -6200,7 +6298,7 @@
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>5000</v>
       </c>
       <c r="C34">
@@ -6227,7 +6325,7 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>4568</v>
       </c>
     </row>
@@ -6235,7 +6333,7 @@
       <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>5000</v>
       </c>
       <c r="C35">
@@ -6262,7 +6360,7 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>4601</v>
       </c>
     </row>
@@ -6270,7 +6368,7 @@
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>5000</v>
       </c>
       <c r="C36">
@@ -6297,7 +6395,7 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>4645</v>
       </c>
     </row>
@@ -6305,7 +6403,7 @@
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>5000</v>
       </c>
       <c r="C37">
@@ -6332,7 +6430,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>4687</v>
       </c>
     </row>
@@ -6340,7 +6438,7 @@
       <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>5000</v>
       </c>
       <c r="C38">
@@ -6367,7 +6465,7 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>4744</v>
       </c>
     </row>
@@ -6375,7 +6473,7 @@
       <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>5000</v>
       </c>
       <c r="C39">
@@ -6402,7 +6500,7 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>4744</v>
       </c>
     </row>
@@ -6410,7 +6508,7 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>5000</v>
       </c>
       <c r="C40">
@@ -6437,7 +6535,7 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>4783</v>
       </c>
     </row>
@@ -6445,7 +6543,7 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>5000</v>
       </c>
       <c r="C41">
@@ -6472,7 +6570,7 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>4791</v>
       </c>
     </row>
@@ -6480,7 +6578,7 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>10000</v>
       </c>
       <c r="C42">
@@ -6507,15 +6605,15 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>9619</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>5000</v>
       </c>
       <c r="C43">
@@ -6542,7 +6640,7 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="23">
         <v>4803</v>
       </c>
     </row>
@@ -6598,7 +6696,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
+++ b/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C633AC01-4376-41F0-AE10-3D0A74F60D87}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F97B80C-394F-472B-ADD9-F3DC06588F10}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" activeTab="2" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" activeTab="3" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
     <sheet name="BM1's Performance" sheetId="2" r:id="rId1"/>
     <sheet name="enet" sheetId="3" r:id="rId2"/>
     <sheet name="lars" sheetId="5" r:id="rId3"/>
-    <sheet name="glmnet" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="lars (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="glmnet" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
   <si>
     <t>Dataset Range</t>
   </si>
@@ -271,6 +272,18 @@
   </si>
   <si>
     <t>0.5-5-1-1 to 0.5-5-10-500</t>
+  </si>
+  <si>
+    <t>0-5-1-1 to 0-5-10-500</t>
+  </si>
+  <si>
+    <t>0-6-1-1 to 0-6-10-500</t>
+  </si>
+  <si>
+    <t>0-7-1-1 to 0-7-10-500</t>
+  </si>
+  <si>
+    <t>0-8-1-1 to 0-8-10-500</t>
   </si>
 </sst>
 </file>
@@ -905,7 +918,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,6 +955,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -3643,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232B5EE-21FD-4318-98F5-1F0F02FE7624}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13:K13"/>
     </sheetView>
   </sheetViews>
@@ -5110,6 +5125,872 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE07AF-BA89-4DE8-A002-2F86D8F90129}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="26">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>757</v>
+      </c>
+      <c r="G15">
+        <v>4243</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="J15">
+        <v>757</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3147</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3147</v>
+      </c>
+      <c r="J16">
+        <v>1853</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3027</v>
+      </c>
+      <c r="G17">
+        <v>1973</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1973</v>
+      </c>
+      <c r="J17">
+        <v>3027</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="C18">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>984</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>984</v>
+      </c>
+      <c r="J18">
+        <v>4016</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>467</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>467</v>
+      </c>
+      <c r="J19">
+        <v>4533</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>188</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>188</v>
+      </c>
+      <c r="J20">
+        <v>4812</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>70</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>4930</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>4967</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4996</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>4998</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5000</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>4999</v>
+      </c>
+      <c r="K26" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>5000</v>
+      </c>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>5000</v>
+      </c>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>5000</v>
+      </c>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>5000</v>
+      </c>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5000</v>
+      </c>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5000</v>
+      </c>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>5000</v>
+      </c>
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
+        <f>SUM(B2:B45)</f>
+        <v>270000</v>
+      </c>
+      <c r="C46" s="11">
+        <f>AVERAGE(C15:C45)</f>
+        <v>0.70269230769230773</v>
+      </c>
+      <c r="D46" s="11">
+        <f>AVERAGE(D15:D45)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <f>AVERAGE(E15:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <f>SUM(F15:F45)</f>
+        <v>3784</v>
+      </c>
+      <c r="G46" s="12">
+        <f>SUM(G15:G45)</f>
+        <v>11112</v>
+      </c>
+      <c r="H46" s="13">
+        <f>SUM(H15:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <f>SUM(I15:I45)</f>
+        <v>11869</v>
+      </c>
+      <c r="J46" s="12">
+        <f>SUM(J15:J45)</f>
+        <v>53888</v>
+      </c>
+      <c r="K46" s="14">
+        <f>SUM(K15:K45)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27687026-1C3E-47B1-9960-E23D504D8B41}">
   <dimension ref="A1:L44"/>
   <sheetViews>
@@ -6691,12 +7572,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FF32B-12B2-446F-B379-0C77DD69B6A0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +7589,8 @@
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
+++ b/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="960" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C894BE-2E47-4A92-BC53-0FBB28E25410}"/>
+  <xr:revisionPtr revIDLastSave="1020" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F7CF5D-7595-4036-B12C-5D9CA62FDDF1}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" firstSheet="1" activeTab="1" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" activeTab="4" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
     <sheet name="enet" sheetId="3" r:id="rId1"/>
     <sheet name="enet (2)" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="lars" sheetId="5" r:id="rId4"/>
-    <sheet name="lars (2)" sheetId="8" r:id="rId5"/>
-    <sheet name="c.vglmnet &amp; s = lambda.1se" sheetId="10" r:id="rId6"/>
-    <sheet name="glmnet &amp; s = 0.1" sheetId="7" r:id="rId7"/>
-    <sheet name="cv.glmnet &amp; s = lambda.min " sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="lars (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="c.vglmnet &amp; s = lambda.1se" sheetId="10" r:id="rId5"/>
+    <sheet name="glmnet &amp; s = 0.1" sheetId="7" r:id="rId6"/>
+    <sheet name="cv.glmnet &amp; s = lambda.min " sheetId="9" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="84">
   <si>
     <t>Dataset Range</t>
   </si>
@@ -142,9 +141,6 @@
   </si>
   <si>
     <t>0.75-12-1-1 to 0.75-12-10-500</t>
-  </si>
-  <si>
-    <t>0.75-13-1-1 to 0.75-13-10-500</t>
   </si>
   <si>
     <t>0.75-15-1-1 to 0.75-15-10-500</t>
@@ -292,6 +288,12 @@
   </si>
   <si>
     <t>0.5-9-1-1 to 0.5-11-10-500</t>
+  </si>
+  <si>
+    <t>0.75-12-1-1 to 0.75-14-10-500</t>
+  </si>
+  <si>
+    <t># of Datasets</t>
   </si>
 </sst>
 </file>
@@ -938,7 +940,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -982,7 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1349,8 +1350,8 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1402,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>10000</v>
@@ -1497,7 +1498,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
@@ -1529,7 +1530,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12">
         <v>10000</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12">
         <v>10000</v>
@@ -1593,7 +1594,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12">
         <v>10000</v>
@@ -1625,7 +1626,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9">
         <v>15000</v>
@@ -1657,7 +1658,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="12">
         <v>15000</v>
@@ -1721,7 +1722,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="14">
         <v>5000</v>
@@ -1753,7 +1754,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="14">
         <v>10000</v>
@@ -1785,7 +1786,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12">
         <v>15000</v>
@@ -2137,7 +2138,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="12">
         <v>5000</v>
@@ -2169,7 +2170,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="12">
         <v>5000</v>
@@ -2201,7 +2202,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="12">
         <v>5000</v>
@@ -2233,7 +2234,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="12">
         <v>5000</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="12">
         <v>10000</v>
@@ -2361,7 +2362,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="12">
         <v>5000</v>
@@ -2437,11 +2438,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DD9904-6857-47B5-8413-12D9FDBA04B5}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,25 +2470,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
@@ -2507,7 +2508,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -2516,7 +2517,7 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>0.995</v>
@@ -2560,7 +2561,7 @@
         <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0.97899999999999998</v>
@@ -2604,7 +2605,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0.95599999999999996</v>
@@ -2639,7 +2640,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -2648,7 +2649,7 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>0.93600000000000005</v>
@@ -2683,7 +2684,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>5000</v>
@@ -2692,7 +2693,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>0.92200000000000004</v>
@@ -2736,7 +2737,7 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0.90700000000000003</v>
@@ -2780,7 +2781,7 @@
         <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>0.89100000000000001</v>
@@ -2815,7 +2816,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>5000</v>
@@ -2824,7 +2825,7 @@
         <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>0.874</v>
@@ -2859,7 +2860,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>5000</v>
@@ -2868,7 +2869,7 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0.85799999999999998</v>
@@ -2912,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0.84</v>
@@ -2949,14 +2950,14 @@
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>10000</v>
       </c>
       <c r="C12">
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10">
         <v>0.98599999999999999</v>
@@ -3000,7 +3001,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0.96599999999999997</v>
@@ -3035,16 +3036,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="38">
+        <v>51</v>
+      </c>
+      <c r="B14" s="37">
         <v>10000</v>
       </c>
       <c r="C14">
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0.94</v>
@@ -3079,7 +3080,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -3088,7 +3089,7 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0.91200000000000003</v>
@@ -3132,7 +3133,7 @@
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0.89100000000000001</v>
@@ -3167,7 +3168,7 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
         <v>5000</v>
@@ -3176,7 +3177,7 @@
         <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0.871</v>
@@ -3211,16 +3212,16 @@
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="38">
+        <v>42</v>
+      </c>
+      <c r="B18" s="37">
         <v>10000</v>
       </c>
       <c r="C18" s="1">
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0.84099999999999997</v>
@@ -3255,7 +3256,7 @@
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>5000</v>
@@ -3264,7 +3265,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0.81100000000000005</v>
@@ -3308,7 +3309,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>0.78900000000000003</v>
@@ -3352,7 +3353,7 @@
         <v>158</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="7">
         <v>0.77</v>
@@ -3389,14 +3390,14 @@
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>10000</v>
       </c>
       <c r="C22" s="10">
         <v>441</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>0.96799999999999997</v>
@@ -3433,14 +3434,14 @@
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>10000</v>
       </c>
       <c r="C23" s="1">
         <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>0.92200000000000004</v>
@@ -3484,7 +3485,7 @@
         <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24">
         <v>0.88500000000000001</v>
@@ -3528,7 +3529,7 @@
         <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0.86099999999999999</v>
@@ -3563,42 +3564,42 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="38">
+        <v>81</v>
+      </c>
+      <c r="B26" s="37">
         <v>15000</v>
       </c>
       <c r="C26" s="36">
         <v>2466</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="37">
+        <v>78</v>
+      </c>
+      <c r="E26">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26">
         <v>0.44500000000000001</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26">
         <v>13260</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="37">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>14998</v>
       </c>
       <c r="N26" s="13">
@@ -3609,40 +3610,40 @@
       <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <v>10000</v>
       </c>
       <c r="C27" s="36">
         <v>1093</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="37">
+        <v>78</v>
+      </c>
+      <c r="E27">
         <v>0.751</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27">
         <v>8785</v>
       </c>
-      <c r="K27" s="37">
-        <v>0</v>
-      </c>
-      <c r="L27" s="37">
-        <v>0</v>
-      </c>
-      <c r="M27" s="37">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>10000</v>
       </c>
       <c r="N27" s="13">
@@ -3653,14 +3654,14 @@
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>10000</v>
       </c>
       <c r="C28" s="1">
         <v>460</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="7">
         <v>0.70199999999999996</v>
@@ -3697,20 +3698,20 @@
       <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="38">
         <v>10000</v>
       </c>
       <c r="C29" s="10">
         <v>555</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="10">
         <v>0.92300000000000004</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="10">
         <v>0.51300000000000001</v>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>5000</v>
@@ -3748,33 +3749,33 @@
         <v>471</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="37">
+        <v>78</v>
+      </c>
+      <c r="E30">
         <v>0.877</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="37">
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30">
         <v>0.38800000000000001</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30">
         <v>2037</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30">
         <v>26</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30">
         <v>29</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30">
         <v>4945</v>
       </c>
       <c r="N30" s="13">
@@ -3783,7 +3784,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>5000</v>
@@ -3792,33 +3793,33 @@
         <v>290</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="37">
+        <v>78</v>
+      </c>
+      <c r="E31">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="37">
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31">
         <v>0.33400000000000002</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31">
         <v>1902</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31">
         <v>5</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31">
         <v>4993</v>
       </c>
       <c r="N31" s="13">
@@ -3827,7 +3828,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>5000</v>
@@ -3836,33 +3837,33 @@
         <v>252</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="37">
+        <v>78</v>
+      </c>
+      <c r="E32">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F32" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="37">
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32">
         <v>0.97</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32">
         <v>0.03</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32">
         <v>1943</v>
       </c>
-      <c r="K32" s="37">
-        <v>0</v>
-      </c>
-      <c r="L32" s="37">
-        <v>0</v>
-      </c>
-      <c r="M32" s="37">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>5000</v>
       </c>
       <c r="N32" s="13">
@@ -3871,7 +3872,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>5000</v>
@@ -3880,33 +3881,33 @@
         <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="37">
+        <v>78</v>
+      </c>
+      <c r="E33">
         <v>0.77900000000000003</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="37">
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33">
         <v>1910</v>
       </c>
-      <c r="K33" s="37">
-        <v>0</v>
-      </c>
-      <c r="L33" s="37">
-        <v>0</v>
-      </c>
-      <c r="M33" s="37">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>5000</v>
       </c>
       <c r="N33" s="13">
@@ -3915,7 +3916,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -3924,33 +3925,33 @@
         <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="37">
+        <v>78</v>
+      </c>
+      <c r="E34">
         <v>0.748</v>
       </c>
-      <c r="F34" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="37">
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34">
         <v>1913</v>
       </c>
-      <c r="K34" s="37">
-        <v>0</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0</v>
-      </c>
-      <c r="M34" s="37">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>5000</v>
       </c>
       <c r="N34" s="13">
@@ -3959,7 +3960,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>5000</v>
@@ -3968,33 +3969,33 @@
         <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="37">
+        <v>78</v>
+      </c>
+      <c r="E35">
         <v>0.71599999999999997</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="37">
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35">
         <v>0.216</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35">
         <v>2017</v>
       </c>
-      <c r="K35" s="37">
-        <v>0</v>
-      </c>
-      <c r="L35" s="37">
-        <v>0</v>
-      </c>
-      <c r="M35" s="37">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>5000</v>
       </c>
       <c r="N35" s="13">
@@ -4008,104 +4009,182 @@
       <c r="B36">
         <v>5000</v>
       </c>
+      <c r="C36" s="1">
+        <v>77</v>
+      </c>
       <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="N36" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I36">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J36">
+        <v>2066</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>5000</v>
+      </c>
+      <c r="N36" s="13">
+        <v>2934</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>5000</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="37">
+        <v>15000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="38">
-        <v>10000</v>
+        <v>78</v>
+      </c>
+      <c r="E37">
+        <v>0.621</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J37">
+        <v>6942</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>15000</v>
+      </c>
+      <c r="N37" s="13">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="N38" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="34">
+        <v>0.153</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I38" s="34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J38" s="34">
+        <v>2460</v>
+      </c>
+      <c r="K38" s="34">
+        <v>0</v>
+      </c>
+      <c r="L38" s="34">
+        <v>0</v>
+      </c>
+      <c r="M38" s="34">
+        <v>5000</v>
+      </c>
+      <c r="N38" s="15">
+        <v>2540</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>5000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <f>SUM(B2:B39)</f>
+      <c r="B39" s="2">
+        <f>SUM(B2:B38)</f>
         <v>260000</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="29">
-        <f>AVERAGE(E2:E39)</f>
-        <v>0.86864705882352977</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="31">
-        <f>AVERAGE(G13:G39)</f>
-        <v>0.50078260869565216</v>
-      </c>
-      <c r="H40" s="31">
-        <f>AVERAGE(H13:H39)</f>
-        <v>0.98960869565217391</v>
-      </c>
-      <c r="I40" s="31">
-        <f>AVERAGE(I13:I39)</f>
-        <v>1.0391304347826088E-2</v>
-      </c>
-      <c r="J40" s="4">
-        <f>SUM(J13:J39)</f>
-        <v>121762</v>
-      </c>
-      <c r="K40" s="4">
-        <f>SUM(K13:K39)</f>
-        <v>8166</v>
-      </c>
-      <c r="L40" s="5">
-        <f>SUM(L13:L39)</f>
+      <c r="C39" s="4">
+        <f>SUM(C2:C38)</f>
+        <v>10505</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="29">
+        <f>AVERAGE(E2:E38)</f>
+        <v>0.84854054054054084</v>
+      </c>
+      <c r="F39" s="29">
+        <f>AVERAGE(F2:F28)</f>
+        <v>0.7791111111111112</v>
+      </c>
+      <c r="G39" s="31">
+        <f>AVERAGE(G2:G38)</f>
+        <v>0.55981081081081097</v>
+      </c>
+      <c r="H39" s="31">
+        <f>AVERAGE(H2:H38)</f>
+        <v>0.99059459459459487</v>
+      </c>
+      <c r="I39" s="31">
+        <f>AVERAGE(I2:I38)</f>
+        <v>9.4054054054054041E-3</v>
+      </c>
+      <c r="J39" s="4">
+        <f>SUM(J2:J38)</f>
+        <v>185825</v>
+      </c>
+      <c r="K39" s="4">
+        <f>SUM(K2:K38)</f>
+        <v>30571</v>
+      </c>
+      <c r="L39" s="5">
+        <f>SUM(L2:L38)</f>
         <v>802</v>
       </c>
-      <c r="M40" s="4">
-        <f>SUM(M13:M39)</f>
-        <v>151032</v>
-      </c>
-      <c r="N40" s="6">
-        <f>SUM(N13:N39)</f>
-        <v>30072</v>
+      <c r="M39" s="4">
+        <f>SUM(M2:M38)</f>
+        <v>228627</v>
+      </c>
+      <c r="N39" s="6">
+        <f>SUM(N2:N38)</f>
+        <v>43604</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4195,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FF32B-12B2-446F-B379-0C77DD69B6A0}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,8 +4211,9 @@
     <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,7 +4262,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -4193,19 +4273,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -4217,12 +4297,44 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4232,1388 +4344,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232B5EE-21FD-4318-98F5-1F0F02FE7624}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>728</v>
-      </c>
-      <c r="G2">
-        <v>9272</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>F2+G2+H2</f>
-        <v>10000</v>
-      </c>
-      <c r="J2">
-        <v>728</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10000</v>
-      </c>
-      <c r="C3">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>4156</v>
-      </c>
-      <c r="G3">
-        <v>5844</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I4" si="0">F3+G3+H3</f>
-        <v>10000</v>
-      </c>
-      <c r="J3">
-        <v>4156</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>7493</v>
-      </c>
-      <c r="G4">
-        <v>2507</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J4">
-        <v>7493</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5">
-        <v>0.81</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4454</v>
-      </c>
-      <c r="G5">
-        <v>546</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>5000</v>
-      </c>
-      <c r="J5">
-        <v>4454</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>9620</v>
-      </c>
-      <c r="G6">
-        <v>380</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10000</v>
-      </c>
-      <c r="J6">
-        <v>9620</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
-      <c r="C7">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>9915</v>
-      </c>
-      <c r="G7">
-        <v>85</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
-      </c>
-      <c r="J7">
-        <v>9915</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8">
-        <v>0.71</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>4986</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>5000</v>
-      </c>
-      <c r="J8">
-        <v>4986</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>5000</v>
-      </c>
-      <c r="C9">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4993</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>5000</v>
-      </c>
-      <c r="J9">
-        <v>4993</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2610</v>
-      </c>
-      <c r="G10" s="10">
-        <v>7390</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2610</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>5000</v>
-      </c>
-      <c r="C11">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3027</v>
-      </c>
-      <c r="G11">
-        <v>1973</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>5000</v>
-      </c>
-      <c r="J11">
-        <v>3027</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>8549</v>
-      </c>
-      <c r="G12">
-        <v>1451</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>10000</v>
-      </c>
-      <c r="J12">
-        <v>8549</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>5000</v>
-      </c>
-      <c r="C13">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4812</v>
-      </c>
-      <c r="G13">
-        <v>188</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>5000</v>
-      </c>
-      <c r="J13">
-        <v>4812</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>4930</v>
-      </c>
-      <c r="G14">
-        <v>70</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>5000</v>
-      </c>
-      <c r="J14">
-        <v>4930</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C15">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>4967</v>
-      </c>
-      <c r="G15">
-        <v>33</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>5000</v>
-      </c>
-      <c r="J15">
-        <v>4967</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>0.61</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>9994</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>10000</v>
-      </c>
-      <c r="J16">
-        <v>9994</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17">
-        <v>5000</v>
-      </c>
-      <c r="C17">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4998</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>4998</v>
-      </c>
-      <c r="J17">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5000</v>
-      </c>
-      <c r="C18">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4998</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4999</v>
-      </c>
-      <c r="J18">
-        <v>4999</v>
-      </c>
-      <c r="K18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>5000</v>
-      </c>
-      <c r="C19">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>4998</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4998</v>
-      </c>
-      <c r="J19">
-        <v>5000</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5330</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4647</v>
-      </c>
-      <c r="H20" s="10">
-        <v>13</v>
-      </c>
-      <c r="I20" s="10">
-        <v>9990</v>
-      </c>
-      <c r="J20" s="10">
-        <v>5340</v>
-      </c>
-      <c r="K20" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-      <c r="C21">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>9075</v>
-      </c>
-      <c r="G21">
-        <v>879</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>9959</v>
-      </c>
-      <c r="J21">
-        <v>9116</v>
-      </c>
-      <c r="K21" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>4923</v>
-      </c>
-      <c r="G22">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>4972</v>
-      </c>
-      <c r="J22">
-        <v>4951</v>
-      </c>
-      <c r="K22" s="13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>5000</v>
-      </c>
-      <c r="C23">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>4932</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>SUM(F23,G23,H23)</f>
-        <v>4953</v>
-      </c>
-      <c r="J23">
-        <v>4979</v>
-      </c>
-      <c r="K23" s="13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>5000</v>
-      </c>
-      <c r="C24">
-        <v>0.502</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>4937</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I27" si="1">SUM(F24,G24,H24)</f>
-        <v>4941</v>
-      </c>
-      <c r="J24">
-        <v>4996</v>
-      </c>
-      <c r="K24" s="13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>10000</v>
-      </c>
-      <c r="C25">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D25">
-        <v>0.999</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-      <c r="F25">
-        <v>9870</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>9872</v>
-      </c>
-      <c r="J25">
-        <v>9998</v>
-      </c>
-      <c r="K25" s="13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-      <c r="C26">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.995</v>
-      </c>
-      <c r="E26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F26">
-        <v>8785</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>8785</v>
-      </c>
-      <c r="J26">
-        <v>10000</v>
-      </c>
-      <c r="K26" s="13">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>10000</v>
-      </c>
-      <c r="C27">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D27">
-        <v>0.999</v>
-      </c>
-      <c r="E27">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>9798</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>9798</v>
-      </c>
-      <c r="J27">
-        <v>10000</v>
-      </c>
-      <c r="K27" s="13">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.996</v>
-      </c>
-      <c r="E28" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F28" s="10">
-        <v>7450</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1581</v>
-      </c>
-      <c r="H28" s="10">
-        <v>230</v>
-      </c>
-      <c r="I28" s="10">
-        <v>9261</v>
-      </c>
-      <c r="J28" s="10">
-        <v>8189</v>
-      </c>
-      <c r="K28" s="11">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-      <c r="C29">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D29">
-        <v>0.995</v>
-      </c>
-      <c r="E29">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F29">
-        <v>8619</v>
-      </c>
-      <c r="G29">
-        <v>107</v>
-      </c>
-      <c r="H29">
-        <v>17</v>
-      </c>
-      <c r="I29">
-        <v>8743</v>
-      </c>
-      <c r="J29">
-        <v>9876</v>
-      </c>
-      <c r="K29" s="13">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30">
-        <v>5000</v>
-      </c>
-      <c r="C30">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="D30">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="E30">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F30">
-        <v>4115</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>4120</v>
-      </c>
-      <c r="J30">
-        <v>4995</v>
-      </c>
-      <c r="K30" s="13">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <v>5000</v>
-      </c>
-      <c r="C31">
-        <v>0.378</v>
-      </c>
-      <c r="D31">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E31">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F31">
-        <v>3970</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>3970</v>
-      </c>
-      <c r="J31">
-        <v>5000</v>
-      </c>
-      <c r="K31" s="13">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32">
-        <v>5000</v>
-      </c>
-      <c r="C32">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D32">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E32">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F32">
-        <v>3884</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>3884</v>
-      </c>
-      <c r="J32">
-        <v>5000</v>
-      </c>
-      <c r="K32" s="13">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
-        <v>5000</v>
-      </c>
-      <c r="C33">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="D33">
-        <v>0.99</v>
-      </c>
-      <c r="E33">
-        <v>0.01</v>
-      </c>
-      <c r="F33">
-        <v>3804</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>3804</v>
-      </c>
-      <c r="J33">
-        <v>5000</v>
-      </c>
-      <c r="K33" s="13">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>5000</v>
-      </c>
-      <c r="C34">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D34">
-        <v>0.99</v>
-      </c>
-      <c r="E34">
-        <v>0.01</v>
-      </c>
-      <c r="F34">
-        <v>3737</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>3737</v>
-      </c>
-      <c r="J34">
-        <v>5000</v>
-      </c>
-      <c r="K34" s="13">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>5000</v>
-      </c>
-      <c r="C35">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D35">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="E35">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F35">
-        <v>3616</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>3616</v>
-      </c>
-      <c r="J35">
-        <v>5000</v>
-      </c>
-      <c r="K35" s="13">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>10000</v>
-      </c>
-      <c r="C36">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D36">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E36">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F36">
-        <v>7323</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>7323</v>
-      </c>
-      <c r="J36">
-        <v>10000</v>
-      </c>
-      <c r="K36" s="13">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>5000</v>
-      </c>
-      <c r="C37">
-        <v>0.249</v>
-      </c>
-      <c r="D37">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="E37">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F37">
-        <v>3630</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>3630</v>
-      </c>
-      <c r="J37">
-        <v>5000</v>
-      </c>
-      <c r="K37" s="15">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <f>SUM(B2:B37)</f>
-        <v>260000</v>
-      </c>
-      <c r="C38" s="3">
-        <f>AVERAGE(C2:C37)</f>
-        <v>0.5925555555555555</v>
-      </c>
-      <c r="D38" s="3">
-        <f>AVERAGE(D2:D37)</f>
-        <v>0.99736111111111092</v>
-      </c>
-      <c r="E38" s="3">
-        <f>AVERAGE(E2:E37)</f>
-        <v>2.638888888888889E-3</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" ref="F38:K38" si="2">SUM(F2:F37)</f>
-        <v>208026</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="2"/>
-        <v>37061</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="2"/>
-        <v>266</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="2"/>
-        <v>245353</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="2"/>
-        <v>222673</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="2"/>
-        <v>14913</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE07AF-BA89-4DE8-A002-2F86D8F90129}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,25 +4379,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
@@ -5672,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>8</v>
@@ -5683,7 +4420,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -5692,7 +4429,7 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="23">
         <v>0.995136666666667</v>
@@ -5740,7 +4477,7 @@
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="23">
         <v>0.97888666666666702</v>
@@ -5787,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="23">
         <v>0.95618333333333305</v>
@@ -5825,7 +4562,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -5834,7 +4571,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="23">
         <v>0.93645333333333303</v>
@@ -5872,7 +4609,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>5000</v>
@@ -5881,7 +4618,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="23">
         <v>0.92217333333333296</v>
@@ -5928,7 +4665,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="23">
         <v>0.90671333333333304</v>
@@ -5975,7 +4712,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="23">
         <v>0.89126666666666698</v>
@@ -6013,7 +4750,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>5000</v>
@@ -6022,7 +4759,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="23">
         <v>0.87355333333333296</v>
@@ -6060,7 +4797,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>5000</v>
@@ -6069,7 +4806,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="23">
         <v>0.85803333333333298</v>
@@ -6116,7 +4853,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="27">
         <v>0.84015333333333297</v>
@@ -6163,7 +4900,7 @@
         <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="23">
         <v>0.98592666666666695</v>
@@ -6210,7 +4947,7 @@
         <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="23">
         <v>0.96607333333333301</v>
@@ -6248,7 +4985,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -6257,7 +4994,7 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="23">
         <v>0.939703333333333</v>
@@ -6295,7 +5032,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -6304,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="23">
         <v>0.87133333333333296</v>
@@ -6351,7 +5088,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="23">
         <v>0.89074666666666702</v>
@@ -6389,7 +5126,7 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
         <v>5000</v>
@@ -6398,7 +5135,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="23">
         <v>0.87133333333333296</v>
@@ -6436,7 +5173,7 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>10000</v>
@@ -6445,7 +5182,7 @@
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0.84099999999999997</v>
@@ -6483,7 +5220,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>5000</v>
@@ -6492,7 +5229,7 @@
         <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0.81100000000000005</v>
@@ -6539,7 +5276,7 @@
         <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="23">
         <v>0.78910000000000002</v>
@@ -6586,7 +5323,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="27">
         <v>0.76968666666666696</v>
@@ -6633,7 +5370,7 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="26">
         <v>0.96794999999999998</v>
@@ -6680,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="23">
         <v>0.92196666666666705</v>
@@ -6727,7 +5464,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="23">
         <v>0.88454666666666704</v>
@@ -6774,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="23">
         <v>0.86119333333333303</v>
@@ -6821,7 +5558,7 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="23">
         <v>0.83535333333333295</v>
@@ -6868,7 +5605,7 @@
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="23">
         <v>0.79861000000000004</v>
@@ -6915,7 +5652,7 @@
         <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="23">
         <v>0.75088999999999995</v>
@@ -6962,7 +5699,7 @@
         <v>226</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="27">
         <v>0.70186333333333295</v>
@@ -7009,13 +5746,13 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="23">
         <v>0.923433333333333</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>0.51300000000000001</v>
@@ -7047,7 +5784,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>5000</v>
@@ -7056,13 +5793,13 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="23">
         <v>0.876593333333333</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31">
         <v>0.38800000000000001</v>
@@ -7094,7 +5831,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>5000</v>
@@ -7103,13 +5840,13 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="23">
         <v>0.84418000000000004</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32">
         <v>0.33400000000000002</v>
@@ -7141,7 +5878,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>5000</v>
@@ -7150,13 +5887,13 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="23">
         <v>0.81200666666666699</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33">
         <v>0.29199999999999998</v>
@@ -7188,7 +5925,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -7197,13 +5934,13 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="23">
         <v>0.77928666666666702</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34">
         <v>0.25900000000000001</v>
@@ -7235,7 +5972,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>5000</v>
@@ -7244,13 +5981,13 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="23">
         <v>0.74832666666666703</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35">
         <v>0.23899999999999999</v>
@@ -7282,7 +6019,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>5000</v>
@@ -7291,13 +6028,13 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>0.71599999999999997</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36">
         <v>0.216</v>
@@ -7338,13 +6075,13 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="23">
         <v>0.68418666666666705</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37">
         <v>0.19900000000000001</v>
@@ -7385,13 +6122,13 @@
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="23">
         <v>0.65329333333333295</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G38">
         <v>0.187</v>
@@ -7423,7 +6160,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>10000</v>
@@ -7432,13 +6169,13 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="23">
         <v>0.604223333333333</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>0.16500000000000001</v>
@@ -7470,7 +6207,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>5000</v>
@@ -7479,13 +6216,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="33">
         <v>0.55715999999999999</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="34">
         <v>0.153</v>
@@ -7525,47 +6262,50 @@
         <v>2616</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="29">
         <f>AVERAGE(E2:E40)</f>
         <v>0.84142358974358977</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="29">
+        <f>AVERAGE(F2:F29)</f>
+        <v>0.77153560330153692</v>
+      </c>
       <c r="G41" s="31">
-        <f>AVERAGE(G12:G40)</f>
-        <v>0.46568965517241379</v>
+        <f>AVERAGE(G2:G40)</f>
+        <v>0.54592307692307707</v>
       </c>
       <c r="H41" s="31">
-        <f>AVERAGE(H12:H40)</f>
-        <v>0.98651724137931029</v>
+        <f>AVERAGE(H2:H40)</f>
+        <v>0.98997435897435915</v>
       </c>
       <c r="I41" s="31">
-        <f>AVERAGE(I12:I40)</f>
-        <v>1.3482758620689653E-2</v>
+        <f>AVERAGE(I2:I40)</f>
+        <v>1.0025641025641024E-2</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" ref="J41:O41" si="0">SUM(J12:J40)</f>
-        <v>136842</v>
+        <f>SUM(J2:J40)</f>
+        <v>185950</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="0"/>
-        <v>14556</v>
+        <f>SUM(K2:K40)</f>
+        <v>30448</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(L2:L40)</f>
         <v>802</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="0"/>
-        <v>152200</v>
+        <f>SUM(M2:M40)</f>
+        <v>212512</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="0"/>
-        <v>179642</v>
+        <f>SUM(N2:N40)</f>
+        <v>228750</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(O2:O40)</f>
         <v>43602</v>
       </c>
     </row>
@@ -7574,14 +6314,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B222F717-9CF5-4DE8-BB88-311E4BB0B481}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,25 +6350,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
@@ -7640,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>8</v>
@@ -7651,7 +6391,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>10000</v>
@@ -7660,7 +6400,7 @@
         <v>26.3</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="23">
         <v>0.99373</v>
@@ -7707,7 +6447,7 @@
         <v>24.5</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>0.98299999999999998</v>
@@ -7754,7 +6494,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0.96799999999999997</v>
@@ -7792,7 +6532,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
@@ -7801,7 +6541,7 @@
         <v>4.2</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="23">
         <v>0.95795333333333299</v>
@@ -7839,7 +6579,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12">
         <v>5000</v>
@@ -7848,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>0.95199999999999996</v>
@@ -7895,7 +6635,7 @@
         <v>4.7</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>0.94399999999999995</v>
@@ -7942,7 +6682,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>0.94</v>
@@ -7980,7 +6720,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="12">
         <v>5000</v>
@@ -7989,7 +6729,7 @@
         <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>0.93400000000000005</v>
@@ -8027,7 +6767,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>5000</v>
@@ -8036,7 +6776,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0.93</v>
@@ -8083,7 +6823,7 @@
         <v>4.7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>0.92700000000000005</v>
@@ -8130,7 +6870,7 @@
         <v>10.6</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="10">
         <v>0.95799999999999996</v>
@@ -8177,7 +6917,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0.95</v>
@@ -8215,7 +6955,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="12">
         <v>10000</v>
@@ -8224,7 +6964,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>0.94099999999999995</v>
@@ -8262,7 +7002,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12">
         <v>5000</v>
@@ -8271,7 +7011,7 @@
         <v>14.9</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>0.93300000000000005</v>
@@ -8318,7 +7058,7 @@
         <v>7.5</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0.92900000000000005</v>
@@ -8357,7 +7097,7 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14">
         <v>5000</v>
@@ -8366,7 +7106,7 @@
         <v>14.3</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>0.92400000000000004</v>
@@ -8404,7 +7144,7 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="12">
         <v>10000</v>
@@ -8413,7 +7153,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>0.92</v>
@@ -8451,7 +7191,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12">
         <v>5000</v>
@@ -8460,7 +7200,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>0.91700000000000004</v>
@@ -8507,7 +7247,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20">
         <v>0.91500000000000004</v>
@@ -8554,7 +7294,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="7">
         <v>0.91600000000000004</v>
@@ -8601,7 +7341,7 @@
         <v>12.7</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10">
         <v>0.94599999999999995</v>
@@ -8648,7 +7388,7 @@
         <v>14.5</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>0.92800000000000005</v>
@@ -8695,7 +7435,7 @@
         <v>7.7</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0.91400000000000003</v>
@@ -8742,7 +7482,7 @@
         <v>12.2</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>0.90600000000000003</v>
@@ -8789,7 +7529,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>0.90200000000000002</v>
@@ -8836,7 +7576,7 @@
         <v>37.9</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>0.89400000000000002</v>
@@ -8883,7 +7623,7 @@
         <v>29.6</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>0.88800000000000001</v>
@@ -8930,7 +7670,7 @@
         <v>25.6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="7">
         <v>0.88700000000000001</v>
@@ -8977,7 +7717,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="10">
         <v>0.90400000000000003</v>
@@ -9015,7 +7755,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="12">
         <v>5000</v>
@@ -9024,7 +7764,7 @@
         <v>4.8</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31">
         <v>0.879</v>
@@ -9062,7 +7802,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="12">
         <v>5000</v>
@@ -9071,7 +7811,7 @@
         <v>11.3</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0.86299999999999999</v>
@@ -9109,7 +7849,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="12">
         <v>5000</v>
@@ -9118,7 +7858,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>0.85299999999999998</v>
@@ -9156,7 +7896,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="12">
         <v>5000</v>
@@ -9165,7 +7905,7 @@
         <v>9.4</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>0.84199999999999997</v>
@@ -9203,7 +7943,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="12">
         <v>5000</v>
@@ -9212,7 +7952,7 @@
         <v>11.2</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>0.83799999999999997</v>
@@ -9250,7 +7990,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="12">
         <v>5000</v>
@@ -9259,7 +7999,7 @@
         <v>12.4</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <v>0.83499999999999996</v>
@@ -9306,7 +8046,7 @@
         <v>19.3</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <v>0.83099999999999996</v>
@@ -9353,7 +8093,7 @@
         <v>5.4</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38">
         <v>0.83099999999999996</v>
@@ -9391,7 +8131,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="12">
         <v>10000</v>
@@ -9400,7 +8140,7 @@
         <v>11.9</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39">
         <v>0.83299999999999996</v>
@@ -9438,7 +8178,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="19">
         <v>5000</v>
@@ -9447,7 +8187,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40">
         <v>0.83799999999999997</v>
@@ -9493,7 +8233,7 @@
         <v>465.19999999999993</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="30">
         <f>AVERAGE(E2:E40)</f>
@@ -9581,25 +8321,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27687026-1C3E-47B1-9960-E23D504D8B41}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
@@ -9611,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -9632,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>8</v>
@@ -9643,7 +8383,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>10000</v>
@@ -9749,7 +8489,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
@@ -9785,7 +8525,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12">
         <v>5000</v>
@@ -9891,7 +8631,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="12">
         <v>5000</v>
@@ -9926,7 +8666,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>5000</v>
@@ -9996,7 +8736,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>5000</v>
@@ -10031,7 +8771,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="12">
         <v>5000</v>
@@ -10102,7 +8842,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12">
         <v>10000</v>
@@ -10138,7 +8878,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="12">
         <v>5000</v>
@@ -10210,7 +8950,7 @@
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="14">
         <v>5000</v>
@@ -10245,7 +8985,7 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="14">
         <v>5000</v>
@@ -10280,7 +9020,7 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12">
         <v>5000</v>
@@ -10315,7 +9055,7 @@
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="12">
         <v>5000</v>
@@ -10455,7 +9195,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12">
         <v>5000</v>
@@ -10490,7 +9230,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="12">
         <v>5000</v>
@@ -10770,7 +9510,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="12">
         <v>5000</v>
@@ -10805,7 +9545,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="12">
         <v>5000</v>
@@ -10840,7 +9580,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="12">
         <v>5000</v>
@@ -10875,7 +9615,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="12">
         <v>5000</v>
@@ -10910,7 +9650,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="12">
         <v>5000</v>
@@ -10945,7 +9685,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="12">
         <v>5000</v>
@@ -11050,7 +9790,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="12">
         <v>10000</v>
@@ -11085,7 +9825,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="19">
         <v>5000</v>
@@ -11165,7 +9905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73412CC7-265B-4859-AADA-68940D1DA96F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L45"/>
@@ -11216,7 +9956,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>8</v>
@@ -11227,7 +9967,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>10000</v>
@@ -11332,7 +10072,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12">
         <v>5000</v>
@@ -11367,7 +10107,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12">
         <v>5000</v>
@@ -11472,7 +10212,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="12">
         <v>5000</v>
@@ -11507,7 +10247,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>5000</v>
@@ -11577,7 +10317,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>5000</v>
@@ -11612,7 +10352,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="12">
         <v>5000</v>
@@ -11717,7 +10457,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="12">
         <v>5000</v>
@@ -11752,7 +10492,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="12">
         <v>5000</v>
@@ -11823,7 +10563,7 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="14">
         <v>5000</v>
@@ -11858,7 +10598,7 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="14">
         <v>5000</v>
@@ -11893,7 +10633,7 @@
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="12">
         <v>5000</v>
@@ -11928,7 +10668,7 @@
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="12">
         <v>5000</v>
@@ -12208,7 +10948,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="12">
         <v>5000</v>
@@ -12243,7 +10983,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="12">
         <v>5000</v>
@@ -12278,7 +11018,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12">
         <v>10000</v>
@@ -12383,7 +11123,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="12">
         <v>5000</v>
@@ -12418,7 +11158,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="12">
         <v>5000</v>
@@ -12453,7 +11193,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="12">
         <v>5000</v>
@@ -12488,7 +11228,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="12">
         <v>5000</v>
@@ -12523,7 +11263,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="12">
         <v>5000</v>
@@ -12558,7 +11298,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="12">
         <v>5000</v>
@@ -12663,7 +11403,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="12">
         <v>10000</v>
@@ -12698,7 +11438,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="19">
         <v>5000</v>

--- a/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
+++ b/Stage 2 Results/Overall LASSO Performance Metrics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/1st Benchmark/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640B0B6C-9639-4175-9E5D-F491D7360051}"/>
+  <xr:revisionPtr revIDLastSave="1179" documentId="13_ncr:1_{932425C6-33D3-4218-8036-04CFE621EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BBA71EC-92C6-47C4-85E8-CEEA24EA9307}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="-270" windowWidth="24540" windowHeight="13320" firstSheet="1" activeTab="3" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="3" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="headers" sheetId="4" r:id="rId1"/>
-    <sheet name="lars with predict(s = 0.2)" sheetId="14" r:id="rId2"/>
-    <sheet name="c.vglmnet &amp; s = lambda.1se" sheetId="10" r:id="rId3"/>
-    <sheet name="lars with predict(s = 0.5)" sheetId="15" r:id="rId4"/>
+    <sheet name="headers" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="lars with predict(s = 0.2)" sheetId="14" state="hidden" r:id="rId2"/>
+    <sheet name="cv.glmnet &amp; s = lambda.1se" sheetId="10" state="hidden" r:id="rId3"/>
+    <sheet name="cv.glmnet &amp; s = lambda.1se(2)" sheetId="16" r:id="rId4"/>
+    <sheet name="lars with predict(s = 0.5)" sheetId="15" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="95">
   <si>
     <t>Dataset Range</t>
   </si>
@@ -255,6 +256,75 @@
   </si>
   <si>
     <t>Col K +  Col L + Col M</t>
+  </si>
+  <si>
+    <t>0-3-1-1 to 0-3-10-500</t>
+  </si>
+  <si>
+    <t>0-4-1-1 to 0-4-10-500</t>
+  </si>
+  <si>
+    <t>0-5-1-1 to 0-5-10-500</t>
+  </si>
+  <si>
+    <t>0-6-1-1 to 0-6-10-500</t>
+  </si>
+  <si>
+    <t>0-7-1-1 to 0-7-10-500</t>
+  </si>
+  <si>
+    <t>0-8-1-1 to 0-8-10-500</t>
+  </si>
+  <si>
+    <t>0.25-3-1-1 to 0.25-3-10-500</t>
+  </si>
+  <si>
+    <t>0.25-4-1-1 to 0.25-4-10-500</t>
+  </si>
+  <si>
+    <t>0.25-6-1-1 to 0.25-6-10-500</t>
+  </si>
+  <si>
+    <t>0.25-7-1-1 to 0.25-7-10-500</t>
+  </si>
+  <si>
+    <t>0.25-11-1-1 to 0.25-11-10-500</t>
+  </si>
+  <si>
+    <t>0.25-12-1-1 to 0.25-12-10-500</t>
+  </si>
+  <si>
+    <t>0.5-3-1-1 to 0.5-3-10-500</t>
+  </si>
+  <si>
+    <t>0.5-4-1-1 to 0.5-4-10-500</t>
+  </si>
+  <si>
+    <t>0.5-10-1-1 to 0.5-10-10-500</t>
+  </si>
+  <si>
+    <t>0.5-11-1-1 to 0.5-11-10-500</t>
+  </si>
+  <si>
+    <t>0.5-12-1-1 to 0.5-12-10-500</t>
+  </si>
+  <si>
+    <t>0.5-13-1-1 to 0.5-13-10-500</t>
+  </si>
+  <si>
+    <t>0.5-14-1-1 to 0.5-14-10-500</t>
+  </si>
+  <si>
+    <t>0.5-15-1-1 to 0.5-15-10-500</t>
+  </si>
+  <si>
+    <t>Models with at least one Structural Variable Omitted</t>
+  </si>
+  <si>
+    <t>Models with at least one Extraneous Variable</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
@@ -900,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -941,6 +1011,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -998,10 +1072,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1455,8 +1525,8 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44:J47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,10 +1601,10 @@
       <c r="B2" s="7">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="24">
@@ -3509,8 +3579,8 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43:K46"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,46 +3649,46 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="7">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>26.3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="24">
         <v>0.99373</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="24">
         <v>0.97920777588424601</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
         <v>8686</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>1314</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>10000</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
@@ -5470,6 +5540,13 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C2:C11)</f>
+        <v>92.3</v>
+      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -5479,6 +5556,13 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <f>SUM(C12:C21)</f>
+        <v>86.4</v>
+      </c>
       <c r="J44">
         <v>0.25</v>
       </c>
@@ -5488,6 +5572,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <f>SUM(C22:C29)</f>
+        <v>159.79999999999998</v>
+      </c>
       <c r="J45">
         <v>0.5</v>
       </c>
@@ -5497,6 +5588,13 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.75</v>
+      </c>
+      <c r="C46">
+        <f>SUM(C30:C40)</f>
+        <v>126.70000000000002</v>
+      </c>
       <c r="J46">
         <v>0.75</v>
       </c>
@@ -5511,12 +5609,2762 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC110571-0E41-44DB-99AB-9DB55013B25C}">
+  <dimension ref="A1:Q60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>372.58000000000197</v>
+      </c>
+      <c r="D2">
+        <v>0.996</v>
+      </c>
+      <c r="E2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.995</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4532</v>
+      </c>
+      <c r="M2">
+        <v>468</v>
+      </c>
+      <c r="N2">
+        <v>5000</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>272.55000000001701</v>
+      </c>
+      <c r="D3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>4147</v>
+      </c>
+      <c r="M3">
+        <v>853</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C4">
+        <v>224.630000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3642</v>
+      </c>
+      <c r="M4">
+        <v>1358</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>270.91000000000298</v>
+      </c>
+      <c r="D5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3064</v>
+      </c>
+      <c r="M5">
+        <v>1936</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <v>263.92000000001298</v>
+      </c>
+      <c r="D6">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="I6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2585</v>
+      </c>
+      <c r="M6">
+        <v>2415</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>270.99000000002002</v>
+      </c>
+      <c r="D7">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2226</v>
+      </c>
+      <c r="M7">
+        <v>2774</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>279.39000000001403</v>
+      </c>
+      <c r="D8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.94</v>
+      </c>
+      <c r="I8">
+        <v>0.06</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1909</v>
+      </c>
+      <c r="M8">
+        <v>3091</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C9">
+        <v>261.10000000000599</v>
+      </c>
+      <c r="D9">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F9">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1599</v>
+      </c>
+      <c r="M9">
+        <v>3401</v>
+      </c>
+      <c r="N9">
+        <v>5000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>272.10000000000599</v>
+      </c>
+      <c r="D10">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1285</v>
+      </c>
+      <c r="M10">
+        <v>3715</v>
+      </c>
+      <c r="N10">
+        <v>5000</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>259.72000000000099</v>
+      </c>
+      <c r="D11">
+        <v>0.94</v>
+      </c>
+      <c r="E11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.88</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1133</v>
+      </c>
+      <c r="M11">
+        <v>3867</v>
+      </c>
+      <c r="N11">
+        <v>5000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>324.39000000001403</v>
+      </c>
+      <c r="D12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F12">
+        <v>0.879</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>953</v>
+      </c>
+      <c r="M12">
+        <v>4047</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>389.85000000000599</v>
+      </c>
+      <c r="D13">
+        <v>0.93</v>
+      </c>
+      <c r="E13">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.879</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.87</v>
+      </c>
+      <c r="I13">
+        <v>0.13</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>893</v>
+      </c>
+      <c r="M13">
+        <v>4107</v>
+      </c>
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>377.98999999999103</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>794</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4206</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="8">
+        <v>377.41000000000298</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>428</v>
+      </c>
+      <c r="M15" s="8">
+        <v>4572</v>
+      </c>
+      <c r="N15" s="8">
+        <v>5000</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>355.30999999999801</v>
+      </c>
+      <c r="D16">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.77</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>552</v>
+      </c>
+      <c r="M16">
+        <v>4448</v>
+      </c>
+      <c r="N16">
+        <v>5000</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>297.54000000000798</v>
+      </c>
+      <c r="D17">
+        <v>0.95</v>
+      </c>
+      <c r="E17">
+        <v>0.877</v>
+      </c>
+      <c r="F17">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.94</v>
+      </c>
+      <c r="I17">
+        <v>0.06</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>531</v>
+      </c>
+      <c r="M17">
+        <v>4469</v>
+      </c>
+      <c r="N17">
+        <v>5000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>267.869999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.93</v>
+      </c>
+      <c r="I18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>554</v>
+      </c>
+      <c r="M18">
+        <v>4446</v>
+      </c>
+      <c r="N18">
+        <v>5000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>308.77999999999901</v>
+      </c>
+      <c r="D19">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.89</v>
+      </c>
+      <c r="F19">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.92</v>
+      </c>
+      <c r="I19">
+        <v>0.08</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>522</v>
+      </c>
+      <c r="M19">
+        <v>4478</v>
+      </c>
+      <c r="N19">
+        <v>5000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>394.27999999999901</v>
+      </c>
+      <c r="D20">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E20">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I20">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>543</v>
+      </c>
+      <c r="M20">
+        <v>4457</v>
+      </c>
+      <c r="N20">
+        <v>5000</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>394.77999999999901</v>
+      </c>
+      <c r="D21">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>521</v>
+      </c>
+      <c r="M21">
+        <v>4479</v>
+      </c>
+      <c r="N21">
+        <v>5000</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>396.88999999998498</v>
+      </c>
+      <c r="D22">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.114</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>467</v>
+      </c>
+      <c r="M22">
+        <v>4533</v>
+      </c>
+      <c r="N22">
+        <v>5000</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>4533</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>396.05000000001701</v>
+      </c>
+      <c r="D23">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F23">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.875</v>
+      </c>
+      <c r="I23">
+        <v>0.125</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>460</v>
+      </c>
+      <c r="M23">
+        <v>4540</v>
+      </c>
+      <c r="N23">
+        <v>5000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>4540</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>339.85999999998597</v>
+      </c>
+      <c r="D24">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>434</v>
+      </c>
+      <c r="M24">
+        <v>4566</v>
+      </c>
+      <c r="N24">
+        <v>5000</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>4566</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>377.02999999999901</v>
+      </c>
+      <c r="D25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I25">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>417</v>
+      </c>
+      <c r="M25">
+        <v>4583</v>
+      </c>
+      <c r="N25">
+        <v>5000</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>4583</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>386.42000000001298</v>
+      </c>
+      <c r="D26">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="I26">
+        <v>0.159</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>364</v>
+      </c>
+      <c r="M26">
+        <v>4636</v>
+      </c>
+      <c r="N26">
+        <v>5000</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>4636</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="16">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>382.22000000000099</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>397</v>
+      </c>
+      <c r="M27" s="5">
+        <v>4603</v>
+      </c>
+      <c r="N27" s="5">
+        <v>5000</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>281.97000000000099</v>
+      </c>
+      <c r="D28">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>377</v>
+      </c>
+      <c r="M28">
+        <v>4623</v>
+      </c>
+      <c r="N28">
+        <v>5000</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>286.80000000001701</v>
+      </c>
+      <c r="D29">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.83</v>
+      </c>
+      <c r="F29">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I29">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>395</v>
+      </c>
+      <c r="M29">
+        <v>4605</v>
+      </c>
+      <c r="N29">
+        <v>5000</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>242.880000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="I30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>366</v>
+      </c>
+      <c r="M30">
+        <v>4634</v>
+      </c>
+      <c r="N30">
+        <v>5000</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C31">
+        <v>240.140000000014</v>
+      </c>
+      <c r="D31">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E31">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.749</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.112</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>261</v>
+      </c>
+      <c r="M31">
+        <v>4739</v>
+      </c>
+      <c r="N31">
+        <v>5000</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>272.92000000001298</v>
+      </c>
+      <c r="D32">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.872</v>
+      </c>
+      <c r="I32">
+        <v>0.128</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>252</v>
+      </c>
+      <c r="M32">
+        <v>4748</v>
+      </c>
+      <c r="N32">
+        <v>5000</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C33">
+        <v>261.97999999998098</v>
+      </c>
+      <c r="D33">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.86</v>
+      </c>
+      <c r="I33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>210</v>
+      </c>
+      <c r="M33">
+        <v>4790</v>
+      </c>
+      <c r="N33">
+        <v>5000</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>286.33999999999702</v>
+      </c>
+      <c r="D34">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I34">
+        <v>0.157</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>186</v>
+      </c>
+      <c r="M34">
+        <v>4814</v>
+      </c>
+      <c r="N34">
+        <v>5000</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>392.01000000000897</v>
+      </c>
+      <c r="D35">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.875</v>
+      </c>
+      <c r="F35">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="I35">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>166</v>
+      </c>
+      <c r="M35">
+        <v>4834</v>
+      </c>
+      <c r="N35">
+        <v>5000</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>401.44000000000199</v>
+      </c>
+      <c r="D36">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="I36">
+        <v>0.187</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>159</v>
+      </c>
+      <c r="M36">
+        <v>4841</v>
+      </c>
+      <c r="N36">
+        <v>5000</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>399.88999999998498</v>
+      </c>
+      <c r="D37">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I37">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>137</v>
+      </c>
+      <c r="M37">
+        <v>4863</v>
+      </c>
+      <c r="N37">
+        <v>5000</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <v>402.41000000000298</v>
+      </c>
+      <c r="D38">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I38">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>135</v>
+      </c>
+      <c r="M38">
+        <v>4865</v>
+      </c>
+      <c r="N38">
+        <v>5000</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="16">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="5">
+        <v>454.30999999999801</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>126</v>
+      </c>
+      <c r="M39" s="5">
+        <v>4874</v>
+      </c>
+      <c r="N39" s="5">
+        <v>5000</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C40" s="8">
+        <v>629.29000000000804</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I40" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>184</v>
+      </c>
+      <c r="M40" s="8">
+        <v>4816</v>
+      </c>
+      <c r="N40" s="8">
+        <v>5000</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C41">
+        <v>377.16000000000298</v>
+      </c>
+      <c r="D41">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.878</v>
+      </c>
+      <c r="I41">
+        <v>0.122</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>116</v>
+      </c>
+      <c r="M41">
+        <v>4884</v>
+      </c>
+      <c r="N41">
+        <v>5000</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <v>314.79999999998802</v>
+      </c>
+      <c r="D42">
+        <v>0.879</v>
+      </c>
+      <c r="E42">
+        <v>0.746</v>
+      </c>
+      <c r="F42">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I42">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>82</v>
+      </c>
+      <c r="M42">
+        <v>4918</v>
+      </c>
+      <c r="N42">
+        <v>5000</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C43">
+        <v>315.26999999998998</v>
+      </c>
+      <c r="D43">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.755</v>
+      </c>
+      <c r="F43">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I43">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>64</v>
+      </c>
+      <c r="M43">
+        <v>4936</v>
+      </c>
+      <c r="N43">
+        <v>5000</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C44">
+        <v>311.22999999998098</v>
+      </c>
+      <c r="D44">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F44">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I44">
+        <v>0.192</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>45</v>
+      </c>
+      <c r="M44">
+        <v>4955</v>
+      </c>
+      <c r="N44">
+        <v>5000</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C45">
+        <v>303.35999999998597</v>
+      </c>
+      <c r="D45">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E45">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I45">
+        <v>0.215</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>4971</v>
+      </c>
+      <c r="N45">
+        <v>5000</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C46">
+        <v>304.06999999997799</v>
+      </c>
+      <c r="D46">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E46">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F46">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>4969</v>
+      </c>
+      <c r="N46">
+        <v>5000</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C47">
+        <v>309.20999999999202</v>
+      </c>
+      <c r="D47">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E47">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F47">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.752</v>
+      </c>
+      <c r="I47">
+        <v>0.248</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>4975</v>
+      </c>
+      <c r="N47">
+        <v>5000</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C48">
+        <v>297.27999999999901</v>
+      </c>
+      <c r="D48">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E48">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F48">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="I48">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>4981</v>
+      </c>
+      <c r="N48">
+        <v>5000</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C49">
+        <v>306.02999999999901</v>
+      </c>
+      <c r="D49">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E49">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F49">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I49">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>4980</v>
+      </c>
+      <c r="N49">
+        <v>5000</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C50">
+        <v>300.96000000002101</v>
+      </c>
+      <c r="D50">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E50">
+        <v>0.84</v>
+      </c>
+      <c r="F50">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I50">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>4982</v>
+      </c>
+      <c r="N50">
+        <v>5000</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C51">
+        <v>318.29000000000798</v>
+      </c>
+      <c r="D51">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E51">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F51">
+        <v>0.747</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I51">
+        <v>0.309</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>4979</v>
+      </c>
+      <c r="N51">
+        <v>5000</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <v>530.61000000001502</v>
+      </c>
+      <c r="D52">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I52">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>4985</v>
+      </c>
+      <c r="N52">
+        <v>5000</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" s="13">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <f>SUM(B2:B52)</f>
+        <v>255000</v>
+      </c>
+      <c r="C53" s="3">
+        <f>SUM(C2:C52)</f>
+        <v>17055.210000000094</v>
+      </c>
+      <c r="D53" s="28">
+        <f>AVERAGE(D2:D52)</f>
+        <v>0.9130196078431374</v>
+      </c>
+      <c r="E53" s="28">
+        <f t="shared" ref="E53:J53" si="0">AVERAGE(E2:E52)</f>
+        <v>0.87474509803921585</v>
+      </c>
+      <c r="F53" s="28">
+        <f t="shared" si="0"/>
+        <v>0.78919607843137241</v>
+      </c>
+      <c r="G53" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" si="0"/>
+        <v>0.86588235294117644</v>
+      </c>
+      <c r="I53" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13411764705882356</v>
+      </c>
+      <c r="J53" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <f>SUM(K2:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" ref="L53:P53" si="1">SUM(L2:L52)</f>
+        <v>38391</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="1"/>
+        <v>216609</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="1"/>
+        <v>216609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <f>17055/60</f>
+        <v>284.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="35">
+        <f>C54/60</f>
+        <v>4.7374999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>SUM(C2:C14)</f>
+        <v>3840.1200000000977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.25</v>
+      </c>
+      <c r="C58">
+        <f>SUM(C15:C27)</f>
+        <v>4674.4400000000014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <f>SUM(C28:C39)</f>
+        <v>3923.0900000000247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.75</v>
+      </c>
+      <c r="C60">
+        <f>SUM(C40:C52)</f>
+        <v>4617.5599999999677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A39CF-1AD7-4CE8-AF61-FF5E2C413632}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5530,8 +8378,9 @@
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,14 +8427,14 @@
         <v>71</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="7">
